--- a/medicine/Enfance/Signalement_des_maltraitances_sur_mineurs_en_France/Signalement_des_maltraitances_sur_mineurs_en_France.xlsx
+++ b/medicine/Enfance/Signalement_des_maltraitances_sur_mineurs_en_France/Signalement_des_maltraitances_sur_mineurs_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre de la protection de l'enfance en France, tout élément de danger ou de risque de danger concernant un mineur doit être signalé. On le désigne parfois comme '"information préoccupante", abrégé parfois en "I"P 
 La loi sur « la protection de l'enfance en danger en France » a été promulguée le 5 mars 2007, et a été publiée au Journal officiel du 6 mars 2007. Le texte définitif du projet de loi avait été adopté le 22 février 2007, l’Assemblée nationale ayant adopté sans modification le texte déjà adopté par le Sénat le 12 février 2007. Présenté en Conseil des ministres le 3 mai 2006, le projet de loi avait été adopté en première lecture par le Sénat le 21 juin 2006 et par l’Assemblée nationale le 11 janvier 2007.
@@ -512,9 +524,11 @@
           <t>Texte de loi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pour les professionnels, assistantes sociales, éducateurs, médecins, instituteurs, le principe du secret professionnel est défini par les articles 226-13 et 226-14 du code pénal pour les assistantes sociales, les autres travailleurs sociaux sont tenus a une discrétion professionnelle. Cependant les personnes astreintes au secret professionnel doivent toujours faire part des mauvais traitements à l'égard des mineurs[1]. La révélation du secret dans ce cas est possible (article 226-14 du code pénal).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pour les professionnels, assistantes sociales, éducateurs, médecins, instituteurs, le principe du secret professionnel est défini par les articles 226-13 et 226-14 du code pénal pour les assistantes sociales, les autres travailleurs sociaux sont tenus a une discrétion professionnelle. Cependant les personnes astreintes au secret professionnel doivent toujours faire part des mauvais traitements à l'égard des mineurs. La révélation du secret dans ce cas est possible (article 226-14 du code pénal).
 Dans tous les cas, toute personne ayant connaissance de l'existence d'un enfant en danger ou en risque de l'être doit aviser les autorités médicales, judiciaires ou administratives. Ne pas le faire serait tomber sous la coupe de la non-dénonciation de mauvais traitements infligés à un mineur (article 434-3 du code pénal).</t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Cellule départementale de recueil de traitement et d'évaluation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« La mise en œuvre de la loi du 5 mars 2007 réformant la protection de l’enfance implique des modifications importantes, notamment parce qu’il crée dans chaque département une cellule de recueil, de traitement et d’évaluation des situations de danger ou de risques de danger pour l’enfant et l’adolescent, et parce qu’il détermine les règles du partage d’informations entre professionnels. » in « le guide de la cellule départementale de recueil de traitement et d'évaluation », 2008.
 </t>
@@ -574,7 +590,9 @@
           <t>Quand signaler ?</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque l'on constate (ou que l'on soupçonne) une atteinte physique ou mentale, abus sexuel, négligence ou mauvais traitement perpétré sur une personne de moins de 18 ans.
 Mais également :
@@ -610,7 +628,9 @@
           <t>Obligation du signalement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le signalement est une obligation légale.
 articles 434-1 et 3 du nouveau code pénal concernant la non-dénonciation de crime et de   délits et la non-assistance à personne en danger ;
@@ -644,7 +664,9 @@
           <t>À qui signaler ?</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>A la Circonscription d'Action Sociale du conseil départemental où réside l'enfant. Depuis la loi de 1989, les services du département (action sociale, protection maternelle et infantile et aide sociale à l'enfance) sont chargés d'évaluer le risque couru par l'enfant, de proposer un soutien à l'enfant et à sa famille, ou de faire un signalement à l'autorité judiciaire.
 Au 119, le Service National d'Accueil Téléphonique pour l'Enfance en Danger (SNATED)
@@ -676,11 +698,48 @@
           <t>Contenu du signalement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les éléments qui peuvent laisser penser qu'un enfant serait en danger où en risque de danger. L'auteur du signalement n'est pas tenu d'apporter la preuve des faits.
-Voies de signalement
-Par écrit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Signalement_des_maltraitances_sur_mineurs_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Signalement_des_maltraitances_sur_mineurs_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Contenu du signalement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Voies de signalement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par écrit :
 Coordonnées de la personne qui signale, votre situation (ou profession), votre service le cas échéant, vos coordonnées.
 Coordonnées du mineur concerné (identité de l'enfant, âge ou date de naissance, nom(s) des parents, adresse(s) des parents)
 Descriptif circonstancié des faits (faits constatés ou rapportés sans jugement de valeur)
